--- a/backend/processdata/data/test_excel/selldata_2023_08_10_1.xlsx
+++ b/backend/processdata/data/test_excel/selldata_2023_08_10_1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27630" windowHeight="11220"/>
+    <workbookView windowWidth="27720" windowHeight="12525" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="导航" sheetId="1" r:id="rId1"/>
@@ -1158,7 +1158,18 @@
     <t>cn+群内qq:Winny 2956617226</t>
   </si>
   <si>
-    <t>1qq人圣诞夜（其实这个没开排 在找5*5厂 昏迷）</t>
+    <r>
+      <t>1qq</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>人圣诞夜</t>
+    </r>
   </si>
   <si>
     <t>绫华</t>
@@ -3828,10 +3839,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="36">
     <font>
@@ -3905,17 +3916,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="DejaVu Sans"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="SimSun"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -3941,11 +3951,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3964,15 +3988,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3987,6 +4005,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -3995,7 +4028,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4003,6 +4036,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4023,14 +4064,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -4046,30 +4079,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <charset val="134"/>
     </font>
     <font>
@@ -4118,25 +4130,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4148,13 +4148,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4172,18 +4178,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -4196,7 +4190,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4208,7 +4232,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4220,7 +4244,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4232,49 +4292,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4287,12 +4305,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4384,45 +4396,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -4446,157 +4419,196 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -4724,13 +4736,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5056,7 +5069,7 @@
   </sheetPr>
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -5083,7 +5096,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="15.75" spans="1:6">
+    <row r="3" ht="14.25" spans="1:6">
       <c r="A3" s="25">
         <v>1</v>
       </c>
@@ -5099,7 +5112,7 @@
       <c r="E3" s="24"/>
       <c r="F3" s="24"/>
     </row>
-    <row r="4" ht="15.75" spans="1:6">
+    <row r="4" ht="14.25" spans="1:6">
       <c r="A4" s="25">
         <v>2</v>
       </c>
@@ -5136,7 +5149,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" ht="15.75" spans="1:5">
+    <row r="6" ht="14.25" spans="1:5">
       <c r="A6" s="25">
         <v>4</v>
       </c>
@@ -12634,13 +12647,13 @@
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:3">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="52">
+      <c r="B2" s="53">
         <v>3371998107</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="54" t="s">
         <v>34</v>
       </c>
     </row>
@@ -12648,26 +12661,26 @@
       <c r="A3" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="52"/>
+      <c r="C3" s="53"/>
     </row>
     <row r="5" ht="16.5" spans="1:1">
       <c r="A5" s="5"/>
     </row>
     <row r="7" ht="16.5" spans="1:3">
       <c r="A7" s="6"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
     </row>
     <row r="8" ht="16.5" spans="1:3">
       <c r="A8" s="6"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="52"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
     </row>
     <row r="9" ht="14.25" spans="3:3">
-      <c r="C9" s="52"/>
+      <c r="C9" s="53"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -24545,7 +24558,7 @@
       <c r="A2" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="51">
+      <c r="B2" s="52">
         <v>1</v>
       </c>
       <c r="C2" s="1"/>
@@ -24554,7 +24567,7 @@
       <c r="A3" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="51">
+      <c r="B3" s="52">
         <v>1</v>
       </c>
       <c r="C3" s="1"/>
@@ -24563,7 +24576,7 @@
       <c r="A4" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="51">
+      <c r="B4" s="52">
         <v>1</v>
       </c>
       <c r="C4" s="1"/>
@@ -24572,7 +24585,7 @@
       <c r="A5" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="51">
+      <c r="B5" s="52">
         <v>1</v>
       </c>
       <c r="C5" s="1"/>
@@ -24581,7 +24594,7 @@
       <c r="A6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="51">
+      <c r="B6" s="52">
         <v>1</v>
       </c>
       <c r="C6" s="1"/>
@@ -24590,7 +24603,7 @@
       <c r="A7" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="51">
+      <c r="B7" s="52">
         <v>1</v>
       </c>
       <c r="C7" s="1"/>
@@ -24599,7 +24612,7 @@
       <c r="A8" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="51">
+      <c r="B8" s="52">
         <v>1</v>
       </c>
       <c r="C8" s="1"/>
@@ -24608,7 +24621,7 @@
       <c r="A9" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="51">
+      <c r="B9" s="52">
         <v>1</v>
       </c>
       <c r="C9" s="1"/>
@@ -24617,7 +24630,7 @@
       <c r="A10" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="51">
+      <c r="B10" s="52">
         <v>1</v>
       </c>
       <c r="C10" s="1"/>
@@ -24626,7 +24639,7 @@
       <c r="A11" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="51">
+      <c r="B11" s="52">
         <v>1</v>
       </c>
       <c r="C11" s="1"/>
@@ -24635,7 +24648,7 @@
       <c r="A12" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="51">
+      <c r="B12" s="52">
         <v>1</v>
       </c>
       <c r="C12" s="1"/>
@@ -24644,7 +24657,7 @@
       <c r="A13" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="B13" s="51">
+      <c r="B13" s="52">
         <v>1</v>
       </c>
       <c r="C13" s="1"/>
@@ -24653,7 +24666,7 @@
       <c r="A14" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="51">
+      <c r="B14" s="52">
         <v>1</v>
       </c>
       <c r="C14" s="1"/>
@@ -24662,7 +24675,7 @@
       <c r="A15" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="51">
+      <c r="B15" s="52">
         <v>1</v>
       </c>
       <c r="C15" s="1"/>
@@ -24671,7 +24684,7 @@
       <c r="A16" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="51">
+      <c r="B16" s="52">
         <v>1</v>
       </c>
       <c r="C16" s="1"/>
@@ -24680,7 +24693,7 @@
       <c r="A17" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="B17" s="51">
+      <c r="B17" s="52">
         <v>1</v>
       </c>
       <c r="C17" s="1"/>
@@ -24689,7 +24702,7 @@
       <c r="A18" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="B18" s="51">
+      <c r="B18" s="52">
         <v>2</v>
       </c>
       <c r="C18" s="1"/>
@@ -24698,7 +24711,7 @@
       <c r="A19" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="51">
+      <c r="B19" s="52">
         <v>1</v>
       </c>
       <c r="C19" s="1"/>
@@ -24707,7 +24720,7 @@
       <c r="A20" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B20" s="51">
+      <c r="B20" s="52">
         <v>1</v>
       </c>
       <c r="C20" s="1"/>
@@ -24716,7 +24729,7 @@
       <c r="A21" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="51">
+      <c r="B21" s="52">
         <v>2</v>
       </c>
       <c r="C21" s="1"/>
@@ -24725,7 +24738,7 @@
       <c r="A22" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="B22" s="51">
+      <c r="B22" s="52">
         <v>1</v>
       </c>
       <c r="C22" s="1"/>
@@ -24734,7 +24747,7 @@
       <c r="A23" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="B23" s="51">
+      <c r="B23" s="52">
         <v>1</v>
       </c>
       <c r="C23" s="1"/>
@@ -24743,7 +24756,7 @@
       <c r="A24" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="B24" s="51">
+      <c r="B24" s="52">
         <v>1</v>
       </c>
       <c r="C24" s="1"/>
@@ -24752,7 +24765,7 @@
       <c r="A25" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="51">
+      <c r="B25" s="52">
         <v>1</v>
       </c>
       <c r="C25" s="1"/>
@@ -24761,7 +24774,7 @@
       <c r="A26" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="51">
+      <c r="B26" s="52">
         <v>1</v>
       </c>
       <c r="C26" s="1"/>
@@ -24770,7 +24783,7 @@
       <c r="A27" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="B27" s="51">
+      <c r="B27" s="52">
         <v>1</v>
       </c>
       <c r="C27" s="1"/>
@@ -24779,7 +24792,7 @@
       <c r="A28" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="B28" s="51">
+      <c r="B28" s="52">
         <v>1</v>
       </c>
       <c r="C28" s="1"/>
@@ -24788,7 +24801,7 @@
       <c r="A29" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="B29" s="51">
+      <c r="B29" s="52">
         <v>1</v>
       </c>
       <c r="C29" s="1"/>
@@ -24797,7 +24810,7 @@
       <c r="A30" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="B30" s="51">
+      <c r="B30" s="52">
         <v>1</v>
       </c>
       <c r="C30" s="1"/>
@@ -24806,7 +24819,7 @@
       <c r="A31" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="B31" s="51">
+      <c r="B31" s="52">
         <v>1</v>
       </c>
       <c r="C31" s="1"/>
@@ -24815,7 +24828,7 @@
       <c r="A32" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="B32" s="51">
+      <c r="B32" s="52">
         <v>2</v>
       </c>
       <c r="C32" s="1"/>
@@ -24824,7 +24837,7 @@
       <c r="A33" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="B33" s="51">
+      <c r="B33" s="52">
         <v>1</v>
       </c>
       <c r="C33" s="1"/>
@@ -24833,7 +24846,7 @@
       <c r="A34" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="B34" s="51">
+      <c r="B34" s="52">
         <v>1</v>
       </c>
       <c r="C34" s="1"/>
@@ -24842,7 +24855,7 @@
       <c r="A35" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="B35" s="51">
+      <c r="B35" s="52">
         <v>1</v>
       </c>
       <c r="C35" s="1"/>
@@ -24851,7 +24864,7 @@
       <c r="A36" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="B36" s="51">
+      <c r="B36" s="52">
         <v>1</v>
       </c>
       <c r="C36" s="1"/>
@@ -24860,7 +24873,7 @@
       <c r="A37" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="B37" s="51">
+      <c r="B37" s="52">
         <v>1</v>
       </c>
       <c r="C37" s="1"/>
@@ -24869,7 +24882,7 @@
       <c r="A38" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="B38" s="51">
+      <c r="B38" s="52">
         <v>1</v>
       </c>
       <c r="C38" s="1"/>
@@ -24878,7 +24891,7 @@
       <c r="A39" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="B39" s="51">
+      <c r="B39" s="52">
         <v>1</v>
       </c>
       <c r="C39" s="1"/>
@@ -24887,7 +24900,7 @@
       <c r="A40" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B40" s="51">
+      <c r="B40" s="52">
         <v>1</v>
       </c>
       <c r="C40" s="1"/>
@@ -24896,7 +24909,7 @@
       <c r="A41" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="B41" s="51">
+      <c r="B41" s="52">
         <v>1</v>
       </c>
       <c r="C41" s="1"/>
@@ -24905,7 +24918,7 @@
       <c r="A42" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="B42" s="51">
+      <c r="B42" s="52">
         <v>1</v>
       </c>
       <c r="C42" s="1"/>
@@ -24914,7 +24927,7 @@
       <c r="A43" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B43" s="51">
+      <c r="B43" s="52">
         <v>5</v>
       </c>
       <c r="C43" s="1"/>
@@ -24923,7 +24936,7 @@
       <c r="A44" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="B44" s="51">
+      <c r="B44" s="52">
         <v>1</v>
       </c>
       <c r="C44" s="1"/>
@@ -24932,7 +24945,7 @@
       <c r="A45" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="B45" s="51">
+      <c r="B45" s="52">
         <v>2</v>
       </c>
       <c r="C45" s="1"/>
@@ -24941,7 +24954,7 @@
       <c r="A46" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="B46" s="51">
+      <c r="B46" s="52">
         <v>1</v>
       </c>
       <c r="C46" s="1"/>
@@ -24950,7 +24963,7 @@
       <c r="A47" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B47" s="51">
+      <c r="B47" s="52">
         <v>1</v>
       </c>
       <c r="C47" s="1"/>
@@ -24959,7 +24972,7 @@
       <c r="A48" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="B48" s="51">
+      <c r="B48" s="52">
         <v>1</v>
       </c>
       <c r="C48" s="1"/>
@@ -24968,7 +24981,7 @@
       <c r="A49" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="B49" s="51">
+      <c r="B49" s="52">
         <v>1</v>
       </c>
       <c r="C49" s="1"/>
@@ -24977,7 +24990,7 @@
       <c r="A50" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="B50" s="51">
+      <c r="B50" s="52">
         <v>1</v>
       </c>
       <c r="C50" s="1"/>
@@ -24986,7 +24999,7 @@
       <c r="A51" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="B51" s="51">
+      <c r="B51" s="52">
         <v>2</v>
       </c>
       <c r="C51" s="1"/>
@@ -24995,7 +25008,7 @@
       <c r="A52" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="B52" s="51">
+      <c r="B52" s="52">
         <v>1</v>
       </c>
       <c r="C52" s="1"/>
@@ -25004,7 +25017,7 @@
       <c r="A53" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="B53" s="51">
+      <c r="B53" s="52">
         <v>1</v>
       </c>
       <c r="C53" s="1"/>
@@ -25013,7 +25026,7 @@
       <c r="A54" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="B54" s="51">
+      <c r="B54" s="52">
         <v>1</v>
       </c>
       <c r="C54" s="1"/>
@@ -25022,7 +25035,7 @@
       <c r="A55" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="B55" s="51">
+      <c r="B55" s="52">
         <v>1</v>
       </c>
       <c r="C55" s="1"/>
@@ -25031,7 +25044,7 @@
       <c r="A56" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="B56" s="51">
+      <c r="B56" s="52">
         <v>1</v>
       </c>
       <c r="C56" s="1"/>
@@ -25040,7 +25053,7 @@
       <c r="A57" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="B57" s="51">
+      <c r="B57" s="52">
         <v>1</v>
       </c>
       <c r="C57" s="1"/>
@@ -25049,7 +25062,7 @@
       <c r="A58" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="B58" s="51">
+      <c r="B58" s="52">
         <v>3</v>
       </c>
       <c r="C58" s="1"/>
@@ -25058,7 +25071,7 @@
       <c r="A59" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="B59" s="51">
+      <c r="B59" s="52">
         <v>1</v>
       </c>
       <c r="C59" s="1"/>
@@ -25067,7 +25080,7 @@
       <c r="A60" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="B60" s="51">
+      <c r="B60" s="52">
         <v>1</v>
       </c>
       <c r="C60" s="1"/>
@@ -25076,7 +25089,7 @@
       <c r="A61" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="B61" s="51">
+      <c r="B61" s="52">
         <v>1</v>
       </c>
       <c r="C61" s="1"/>
@@ -25085,7 +25098,7 @@
       <c r="A62" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="B62" s="51">
+      <c r="B62" s="52">
         <v>1</v>
       </c>
       <c r="C62" s="1"/>
@@ -25094,7 +25107,7 @@
       <c r="A63" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="B63" s="51">
+      <c r="B63" s="52">
         <v>1</v>
       </c>
       <c r="C63" s="1"/>
@@ -25103,7 +25116,7 @@
       <c r="A64" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="B64" s="51">
+      <c r="B64" s="52">
         <v>1</v>
       </c>
       <c r="C64" s="1"/>
@@ -25112,7 +25125,7 @@
       <c r="A65" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="B65" s="51">
+      <c r="B65" s="52">
         <v>1</v>
       </c>
       <c r="C65" s="1"/>
@@ -25121,7 +25134,7 @@
       <c r="A66" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="B66" s="51">
+      <c r="B66" s="52">
         <v>2</v>
       </c>
       <c r="C66" s="1"/>
@@ -25130,7 +25143,7 @@
       <c r="A67" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="B67" s="51">
+      <c r="B67" s="52">
         <v>1</v>
       </c>
       <c r="C67" s="1"/>
@@ -25139,7 +25152,7 @@
       <c r="A68" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="B68" s="51">
+      <c r="B68" s="52">
         <v>1</v>
       </c>
     </row>
@@ -25147,7 +25160,7 @@
       <c r="A69" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="B69" s="51">
+      <c r="B69" s="52">
         <v>5</v>
       </c>
       <c r="C69" s="1"/>
@@ -25156,7 +25169,7 @@
       <c r="A70" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="B70" s="51">
+      <c r="B70" s="52">
         <v>1</v>
       </c>
       <c r="C70" s="1"/>
@@ -25165,7 +25178,7 @@
       <c r="A71" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="B71" s="51">
+      <c r="B71" s="52">
         <v>1</v>
       </c>
       <c r="C71" s="1"/>
@@ -25174,7 +25187,7 @@
       <c r="A72" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="B72" s="51">
+      <c r="B72" s="52">
         <v>1</v>
       </c>
       <c r="C72" s="1"/>
@@ -25183,7 +25196,7 @@
       <c r="A73" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="B73" s="51">
+      <c r="B73" s="52">
         <v>1</v>
       </c>
       <c r="C73" s="1"/>
@@ -25192,7 +25205,7 @@
       <c r="A74" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="B74" s="51">
+      <c r="B74" s="52">
         <v>1</v>
       </c>
       <c r="C74" s="1"/>
@@ -25201,7 +25214,7 @@
       <c r="A75" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="B75" s="51">
+      <c r="B75" s="52">
         <v>3</v>
       </c>
       <c r="C75" s="1"/>
@@ -25210,7 +25223,7 @@
       <c r="A76" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="B76" s="51">
+      <c r="B76" s="52">
         <v>1</v>
       </c>
       <c r="C76" s="1"/>
@@ -25219,7 +25232,7 @@
       <c r="A77" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="B77" s="51">
+      <c r="B77" s="52">
         <v>1</v>
       </c>
       <c r="C77" s="1"/>
@@ -25228,7 +25241,7 @@
       <c r="A78" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="B78" s="51">
+      <c r="B78" s="52">
         <v>1</v>
       </c>
       <c r="C78" s="1"/>
@@ -26838,8 +26851,8 @@
   </sheetPr>
   <dimension ref="A1:E201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="4"/>
@@ -26850,7 +26863,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:5">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="51" t="s">
         <v>137</v>
       </c>
       <c r="B1" s="8" t="s">
